--- a/data/trans_camb/P42-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P42-Clase-trans_camb.xlsx
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 9,88</t>
+          <t>1,95; 10,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 8,85</t>
+          <t>0,6; 8,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 4,8</t>
+          <t>-4,25; 5,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 9,88</t>
+          <t>1,95; 10,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 8,85</t>
+          <t>0,6; 8,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 4,8</t>
+          <t>-4,25; 5,13</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,11; 11,41</t>
+          <t>2,1; 11,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 10,13</t>
+          <t>0,66; 10,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 5,49</t>
+          <t>-4,57; 5,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,11; 11,41</t>
+          <t>2,1; 11,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 10,13</t>
+          <t>0,66; 10,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 5,49</t>
+          <t>-4,57; 5,86</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 13,49</t>
+          <t>4,27; 13,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,38; 14,54</t>
+          <t>6,02; 14,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 9,85</t>
+          <t>0,46; 10,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 13,49</t>
+          <t>4,27; 13,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,38; 14,54</t>
+          <t>6,02; 14,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 9,85</t>
+          <t>0,46; 10,07</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,85; 16,49</t>
+          <t>4,87; 15,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,25; 17,81</t>
+          <t>6,88; 17,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,05; 11,97</t>
+          <t>0,57; 12,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,85; 16,49</t>
+          <t>4,87; 15,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,25; 17,81</t>
+          <t>6,88; 17,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,05; 11,97</t>
+          <t>0,57; 12,32</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,99; 15,5</t>
+          <t>2,27; 15,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,34; 16,55</t>
+          <t>3,29; 17,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 9,63</t>
+          <t>-5,06; 9,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,99; 15,5</t>
+          <t>2,27; 15,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,34; 16,55</t>
+          <t>3,29; 17,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 9,63</t>
+          <t>-5,06; 9,45</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,28; 19,69</t>
+          <t>2,56; 19,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,94; 20,97</t>
+          <t>3,87; 21,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 12,13</t>
+          <t>-5,74; 11,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,28; 19,69</t>
+          <t>2,56; 19,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,94; 20,97</t>
+          <t>3,87; 21,6</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 12,13</t>
+          <t>-5,74; 11,97</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,68; 13,23</t>
+          <t>6,23; 13,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,45; 13,62</t>
+          <t>6,84; 14,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-51,7; 8,98</t>
+          <t>-54,39; 8,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,68; 13,23</t>
+          <t>6,23; 13,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,45; 13,62</t>
+          <t>6,84; 14,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-51,7; 8,98</t>
+          <t>-54,39; 8,93</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,98; 17,14</t>
+          <t>7,53; 17,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,8; 17,61</t>
+          <t>8,31; 18,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-64,33; 11,42</t>
+          <t>-67,53; 11,2</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,98; 17,14</t>
+          <t>7,53; 17,69</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,8; 17,61</t>
+          <t>8,31; 18,44</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-64,33; 11,42</t>
+          <t>-67,53; 11,2</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 7,38</t>
+          <t>-0,07; 7,95</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 7,53</t>
+          <t>-0,55; 7,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 8,55</t>
+          <t>-0,45; 8,81</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 7,38</t>
+          <t>-0,07; 7,95</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 7,53</t>
+          <t>-0,55; 7,46</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 8,55</t>
+          <t>-0,45; 8,81</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 9,06</t>
+          <t>-0,08; 9,72</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 9,14</t>
+          <t>-0,64; 9,24</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 10,39</t>
+          <t>-0,52; 10,77</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 9,06</t>
+          <t>-0,08; 9,72</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 9,14</t>
+          <t>-0,64; 9,24</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 10,39</t>
+          <t>-0,52; 10,77</t>
         </is>
       </c>
     </row>
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4,29; 11,12</t>
+          <t>4,32; 11,69</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,46; 10,85</t>
+          <t>3,4; 10,99</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 7,39</t>
+          <t>-2,13; 7,36</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,29; 11,12</t>
+          <t>4,32; 11,69</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,46; 10,85</t>
+          <t>3,4; 10,99</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 7,39</t>
+          <t>-2,13; 7,36</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>5,88; 16,0</t>
+          <t>5,89; 16,85</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>4,7; 15,67</t>
+          <t>4,7; 15,89</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 10,64</t>
+          <t>-3,02; 10,49</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>5,88; 16,0</t>
+          <t>5,89; 16,85</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4,7; 15,67</t>
+          <t>4,7; 15,89</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 10,64</t>
+          <t>-3,02; 10,49</t>
         </is>
       </c>
     </row>
@@ -1996,32 +1996,32 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>6,48; 9,97</t>
+          <t>6,38; 9,85</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>6,41; 9,84</t>
+          <t>6,39; 9,87</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-19,44; 6,48</t>
+          <t>-19,25; 6,43</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,48; 9,97</t>
+          <t>6,38; 9,85</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>6,41; 9,84</t>
+          <t>6,39; 9,87</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-19,44; 6,48</t>
+          <t>-19,25; 6,43</t>
         </is>
       </c>
     </row>
@@ -2102,32 +2102,32 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>8,09; 12,83</t>
+          <t>8,01; 12,66</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>8,0; 12,63</t>
+          <t>7,95; 12,67</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-24,52; 8,2</t>
+          <t>-24,29; 8,18</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>8,09; 12,83</t>
+          <t>8,01; 12,66</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>8,0; 12,63</t>
+          <t>7,95; 12,67</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-24,52; 8,2</t>
+          <t>-24,29; 8,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P42-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P42-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
